--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.540689131377</v>
+        <v>101.7469836666667</v>
       </c>
       <c r="H2">
-        <v>101.540689131377</v>
+        <v>305.240951</v>
       </c>
       <c r="I2">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="J2">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.457056414709381</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N2">
-        <v>0.457056414709381</v>
+        <v>1.586585</v>
       </c>
       <c r="O2">
-        <v>0.002269982971482679</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P2">
-        <v>0.002269982971482679</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q2">
-        <v>46.40982332150698</v>
+        <v>53.81007936025944</v>
       </c>
       <c r="R2">
-        <v>46.40982332150698</v>
+        <v>484.290714242335</v>
       </c>
       <c r="S2">
-        <v>0.0003509396699929697</v>
+        <v>0.0003820868393504397</v>
       </c>
       <c r="T2">
-        <v>0.0003509396699929697</v>
+        <v>0.0003820868393504398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.540689131377</v>
+        <v>101.7469836666667</v>
       </c>
       <c r="H3">
-        <v>101.540689131377</v>
+        <v>305.240951</v>
       </c>
       <c r="I3">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="J3">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11625274991922</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N3">
-        <v>1.11625274991922</v>
+        <v>3.377498</v>
       </c>
       <c r="O3">
-        <v>0.005543899292603749</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P3">
-        <v>0.005543899292603749</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q3">
-        <v>113.3450734715922</v>
+        <v>114.5500779467331</v>
       </c>
       <c r="R3">
-        <v>113.3450734715922</v>
+        <v>1030.950701520598</v>
       </c>
       <c r="S3">
-        <v>0.0008570875696701073</v>
+        <v>0.000813380648205064</v>
       </c>
       <c r="T3">
-        <v>0.0008570875696701073</v>
+        <v>0.000813380648205064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.540689131377</v>
+        <v>101.7469836666667</v>
       </c>
       <c r="H4">
-        <v>101.540689131377</v>
+        <v>305.240951</v>
       </c>
       <c r="I4">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="J4">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.176992560799</v>
+        <v>123.474785</v>
       </c>
       <c r="N4">
-        <v>123.176992560799</v>
+        <v>370.424355</v>
       </c>
       <c r="O4">
-        <v>0.6117618451307635</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P4">
-        <v>0.6117618451307635</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q4">
-        <v>12507.47670975403</v>
+        <v>12563.18693264018</v>
       </c>
       <c r="R4">
-        <v>12507.47670975403</v>
+        <v>113068.6823937616</v>
       </c>
       <c r="S4">
-        <v>0.09457846280857819</v>
+        <v>0.08920686318121956</v>
       </c>
       <c r="T4">
-        <v>0.09457846280857819</v>
+        <v>0.08920686318121958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.540689131377</v>
+        <v>101.7469836666667</v>
       </c>
       <c r="H5">
-        <v>101.540689131377</v>
+        <v>305.240951</v>
       </c>
       <c r="I5">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="J5">
-        <v>0.1546001333057346</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.597646894137</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N5">
-        <v>76.597646894137</v>
+        <v>259.315052</v>
       </c>
       <c r="O5">
-        <v>0.3804242726051501</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P5">
-        <v>0.3804242726051501</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q5">
-        <v>7777.77785147255</v>
+        <v>8794.841453454939</v>
       </c>
       <c r="R5">
-        <v>7777.77785147255</v>
+        <v>79153.57308109445</v>
       </c>
       <c r="S5">
-        <v>0.05881364325749332</v>
+        <v>0.06244913989144919</v>
       </c>
       <c r="T5">
-        <v>0.05881364325749332</v>
+        <v>0.0624491398914492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.803262551182</v>
+        <v>101.7469836666667</v>
       </c>
       <c r="H6">
-        <v>167.803262551182</v>
+        <v>305.240951</v>
       </c>
       <c r="I6">
-        <v>0.2554877949073666</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="J6">
-        <v>0.2554877949073666</v>
+        <v>0.1529252800511868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.457056414709381</v>
+        <v>0.1021626666666667</v>
       </c>
       <c r="N6">
-        <v>0.457056414709381</v>
+        <v>0.306488</v>
       </c>
       <c r="O6">
-        <v>0.002269982971482679</v>
+        <v>0.0004826506836401238</v>
       </c>
       <c r="P6">
-        <v>0.002269982971482679</v>
+        <v>0.0004826506836401239</v>
       </c>
       <c r="Q6">
-        <v>76.69555755818018</v>
+        <v>10.39474317667644</v>
       </c>
       <c r="R6">
-        <v>76.69555755818018</v>
+        <v>93.552688590088</v>
       </c>
       <c r="S6">
-        <v>0.0005799529438613814</v>
+        <v>7.380949096256272E-05</v>
       </c>
       <c r="T6">
-        <v>0.0005799529438613814</v>
+        <v>7.380949096256272E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>167.803262551182</v>
+        <v>168.6422323333333</v>
       </c>
       <c r="H7">
-        <v>167.803262551182</v>
+        <v>505.926697</v>
       </c>
       <c r="I7">
-        <v>0.2554877949073666</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="J7">
-        <v>0.2554877949073666</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.11625274991922</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N7">
-        <v>1.11625274991922</v>
+        <v>1.586585</v>
       </c>
       <c r="O7">
-        <v>0.005543899292603749</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P7">
-        <v>0.005543899292603749</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q7">
-        <v>187.3108532681738</v>
+        <v>89.18841206219389</v>
       </c>
       <c r="R7">
-        <v>187.3108532681738</v>
+        <v>802.6957085597451</v>
       </c>
       <c r="S7">
-        <v>0.001416398605455841</v>
+        <v>0.0006332961942571643</v>
       </c>
       <c r="T7">
-        <v>0.001416398605455841</v>
+        <v>0.0006332961942571646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>167.803262551182</v>
+        <v>168.6422323333333</v>
       </c>
       <c r="H8">
-        <v>167.803262551182</v>
+        <v>505.926697</v>
       </c>
       <c r="I8">
-        <v>0.2554877949073666</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="J8">
-        <v>0.2554877949073666</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.176992560799</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N8">
-        <v>123.176992560799</v>
+        <v>3.377498</v>
       </c>
       <c r="O8">
-        <v>0.6117618451307635</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P8">
-        <v>0.6117618451307635</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q8">
-        <v>20669.50122294475</v>
+        <v>189.8629341404562</v>
       </c>
       <c r="R8">
-        <v>20669.50122294475</v>
+        <v>1708.766407264106</v>
       </c>
       <c r="S8">
-        <v>0.1562976848209207</v>
+        <v>0.001348151299496204</v>
       </c>
       <c r="T8">
-        <v>0.1562976848209207</v>
+        <v>0.001348151299496204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>167.803262551182</v>
+        <v>168.6422323333333</v>
       </c>
       <c r="H9">
-        <v>167.803262551182</v>
+        <v>505.926697</v>
       </c>
       <c r="I9">
-        <v>0.2554877949073666</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="J9">
-        <v>0.2554877949073666</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>76.597646894137</v>
+        <v>123.474785</v>
       </c>
       <c r="N9">
-        <v>76.597646894137</v>
+        <v>370.424355</v>
       </c>
       <c r="O9">
-        <v>0.3804242726051501</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P9">
-        <v>0.3804242726051501</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q9">
-        <v>12853.3350525796</v>
+        <v>20823.06337927838</v>
       </c>
       <c r="R9">
-        <v>12853.3350525796</v>
+        <v>187407.5704135054</v>
       </c>
       <c r="S9">
-        <v>0.09719375853712872</v>
+        <v>0.1478574008210495</v>
       </c>
       <c r="T9">
-        <v>0.09719375853712872</v>
+        <v>0.1478574008210495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.954493577042</v>
+        <v>168.6422323333333</v>
       </c>
       <c r="H10">
-        <v>159.954493577042</v>
+        <v>505.926697</v>
       </c>
       <c r="I10">
-        <v>0.2435377014023088</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="J10">
-        <v>0.2435377014023088</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.457056414709381</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N10">
-        <v>0.457056414709381</v>
+        <v>259.315052</v>
       </c>
       <c r="O10">
-        <v>0.002269982971482679</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P10">
-        <v>0.002269982971482679</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q10">
-        <v>73.10822735097753</v>
+        <v>14577.15641563814</v>
       </c>
       <c r="R10">
-        <v>73.10822735097753</v>
+        <v>131194.4077407432</v>
       </c>
       <c r="S10">
-        <v>0.0005528264350972745</v>
+        <v>0.1035073667942144</v>
       </c>
       <c r="T10">
-        <v>0.0005528264350972745</v>
+        <v>0.1035073667942144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.954493577042</v>
+        <v>168.6422323333333</v>
       </c>
       <c r="H11">
-        <v>159.954493577042</v>
+        <v>505.926697</v>
       </c>
       <c r="I11">
-        <v>0.2435377014023088</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="J11">
-        <v>0.2435377014023088</v>
+        <v>0.2534685518788629</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.11625274991922</v>
+        <v>0.1021626666666667</v>
       </c>
       <c r="N11">
-        <v>1.11625274991922</v>
+        <v>0.306488</v>
       </c>
       <c r="O11">
-        <v>0.005543899292603749</v>
+        <v>0.0004826506836401238</v>
       </c>
       <c r="P11">
-        <v>0.005543899292603749</v>
+        <v>0.0004826506836401239</v>
       </c>
       <c r="Q11">
-        <v>178.5496433173093</v>
+        <v>17.22894016779289</v>
       </c>
       <c r="R11">
-        <v>178.5496433173093</v>
+        <v>155.060461510136</v>
       </c>
       <c r="S11">
-        <v>0.001350148490526603</v>
+        <v>0.0001223367698456054</v>
       </c>
       <c r="T11">
-        <v>0.001350148490526603</v>
+        <v>0.0001223367698456054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.954493577042</v>
+        <v>160.1869866666667</v>
       </c>
       <c r="H12">
-        <v>159.954493577042</v>
+        <v>480.56096</v>
       </c>
       <c r="I12">
-        <v>0.2435377014023088</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="J12">
-        <v>0.2435377014023088</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.176992560799</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N12">
-        <v>123.176992560799</v>
+        <v>1.586585</v>
       </c>
       <c r="O12">
-        <v>0.6117618451307635</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P12">
-        <v>0.6117618451307635</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q12">
-        <v>19702.71346540567</v>
+        <v>84.71675674684445</v>
       </c>
       <c r="R12">
-        <v>19702.71346540567</v>
+        <v>762.4508107216001</v>
       </c>
       <c r="S12">
-        <v>0.1489870735687814</v>
+        <v>0.0006015445100667803</v>
       </c>
       <c r="T12">
-        <v>0.1489870735687814</v>
+        <v>0.0006015445100667805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>159.954493577042</v>
+        <v>160.1869866666667</v>
       </c>
       <c r="H13">
-        <v>159.954493577042</v>
+        <v>480.56096</v>
       </c>
       <c r="I13">
-        <v>0.2435377014023088</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="J13">
-        <v>0.2435377014023088</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.597646894137</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N13">
-        <v>76.597646894137</v>
+        <v>3.377498</v>
       </c>
       <c r="O13">
-        <v>0.3804242726051501</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P13">
-        <v>0.3804242726051501</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q13">
-        <v>12252.13781814477</v>
+        <v>180.3437423642311</v>
       </c>
       <c r="R13">
-        <v>12252.13781814477</v>
+        <v>1623.09368127808</v>
       </c>
       <c r="S13">
-        <v>0.09264765290790358</v>
+        <v>0.001280558797455876</v>
       </c>
       <c r="T13">
-        <v>0.09264765290790358</v>
+        <v>0.001280558797455876</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>144.152234603713</v>
+        <v>160.1869866666667</v>
       </c>
       <c r="H14">
-        <v>144.152234603713</v>
+        <v>480.56096</v>
       </c>
       <c r="I14">
-        <v>0.2194780720585733</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="J14">
-        <v>0.2194780720585733</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.457056414709381</v>
+        <v>123.474785</v>
       </c>
       <c r="N14">
-        <v>0.457056414709381</v>
+        <v>370.424355</v>
       </c>
       <c r="O14">
-        <v>0.002269982971482679</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P14">
-        <v>0.002269982971482679</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q14">
-        <v>65.88570352031863</v>
+        <v>19779.05373846454</v>
       </c>
       <c r="R14">
-        <v>65.88570352031863</v>
+        <v>178011.4836461808</v>
       </c>
       <c r="S14">
-        <v>0.0004982114861868099</v>
+        <v>0.1404442479572655</v>
       </c>
       <c r="T14">
-        <v>0.0004982114861868099</v>
+        <v>0.1404442479572655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>144.152234603713</v>
+        <v>160.1869866666667</v>
       </c>
       <c r="H15">
-        <v>144.152234603713</v>
+        <v>480.56096</v>
       </c>
       <c r="I15">
-        <v>0.2194780720585733</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="J15">
-        <v>0.2194780720585733</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.11625274991922</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N15">
-        <v>1.11625274991922</v>
+        <v>259.315052</v>
       </c>
       <c r="O15">
-        <v>0.005543899292603749</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P15">
-        <v>0.005543899292603749</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q15">
-        <v>160.9103282833952</v>
+        <v>13846.29892572999</v>
       </c>
       <c r="R15">
-        <v>160.9103282833952</v>
+        <v>124616.6903315699</v>
       </c>
       <c r="S15">
-        <v>0.001216764328427559</v>
+        <v>0.09831779949279847</v>
       </c>
       <c r="T15">
-        <v>0.001216764328427559</v>
+        <v>0.09831779949279848</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>144.152234603713</v>
+        <v>160.1869866666667</v>
       </c>
       <c r="H16">
-        <v>144.152234603713</v>
+        <v>480.56096</v>
       </c>
       <c r="I16">
-        <v>0.2194780720585733</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="J16">
-        <v>0.2194780720585733</v>
+        <v>0.2407603539069933</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>123.176992560799</v>
+        <v>0.1021626666666667</v>
       </c>
       <c r="N16">
-        <v>123.176992560799</v>
+        <v>0.306488</v>
       </c>
       <c r="O16">
-        <v>0.6117618451307635</v>
+        <v>0.0004826506836401238</v>
       </c>
       <c r="P16">
-        <v>0.6117618451307635</v>
+        <v>0.0004826506836401239</v>
       </c>
       <c r="Q16">
-        <v>17756.23872940411</v>
+        <v>16.36512972316445</v>
       </c>
       <c r="R16">
-        <v>17756.23872940411</v>
+        <v>147.28616750848</v>
       </c>
       <c r="S16">
-        <v>0.1342683103282955</v>
+        <v>0.0001162031494066485</v>
       </c>
       <c r="T16">
-        <v>0.1342683103282955</v>
+        <v>0.0001162031494066485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>144.152234603713</v>
+        <v>144.332067</v>
       </c>
       <c r="H17">
-        <v>144.152234603713</v>
+        <v>432.996201</v>
       </c>
       <c r="I17">
-        <v>0.2194780720585733</v>
+        <v>0.2169304776508345</v>
       </c>
       <c r="J17">
-        <v>0.2194780720585733</v>
+        <v>0.2169304776508346</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.597646894137</v>
+        <v>0.5288616666666667</v>
       </c>
       <c r="N17">
-        <v>76.597646894137</v>
+        <v>1.586585</v>
       </c>
       <c r="O17">
-        <v>0.3804242726051501</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="P17">
-        <v>0.3804242726051501</v>
+        <v>0.002498519794912577</v>
       </c>
       <c r="Q17">
-        <v>11041.721965176</v>
+        <v>76.331697507065</v>
       </c>
       <c r="R17">
-        <v>11041.721965176</v>
+        <v>686.985277563585</v>
       </c>
       <c r="S17">
-        <v>0.08349478591566348</v>
+        <v>0.0005420050925304505</v>
       </c>
       <c r="T17">
-        <v>0.08349478591566348</v>
+        <v>0.0005420050925304507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.3449318880152</v>
+        <v>144.332067</v>
       </c>
       <c r="H18">
-        <v>83.3449318880152</v>
+        <v>432.996201</v>
       </c>
       <c r="I18">
-        <v>0.1268962983260165</v>
+        <v>0.2169304776508345</v>
       </c>
       <c r="J18">
-        <v>0.1268962983260165</v>
+        <v>0.2169304776508346</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.457056414709381</v>
+        <v>1.125832666666667</v>
       </c>
       <c r="N18">
-        <v>0.457056414709381</v>
+        <v>3.377498</v>
       </c>
       <c r="O18">
-        <v>0.002269982971482679</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="P18">
-        <v>0.002269982971482679</v>
+        <v>0.005318810911660982</v>
       </c>
       <c r="Q18">
-        <v>38.09333575293379</v>
+        <v>162.493755876122</v>
       </c>
       <c r="R18">
-        <v>38.09333575293379</v>
+        <v>1462.443802885098</v>
       </c>
       <c r="S18">
-        <v>0.0002880524363442435</v>
+        <v>0.001153812191601088</v>
       </c>
       <c r="T18">
-        <v>0.0002880524363442435</v>
+        <v>0.001153812191601088</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.3449318880152</v>
+        <v>144.332067</v>
       </c>
       <c r="H19">
-        <v>83.3449318880152</v>
+        <v>432.996201</v>
       </c>
       <c r="I19">
-        <v>0.1268962983260165</v>
+        <v>0.2169304776508345</v>
       </c>
       <c r="J19">
-        <v>0.1268962983260165</v>
+        <v>0.2169304776508346</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.11625274991922</v>
+        <v>123.474785</v>
       </c>
       <c r="N19">
-        <v>1.11625274991922</v>
+        <v>370.424355</v>
       </c>
       <c r="O19">
-        <v>0.005543899292603749</v>
+        <v>0.5833362747569298</v>
       </c>
       <c r="P19">
-        <v>0.005543899292603749</v>
+        <v>0.58333627475693</v>
       </c>
       <c r="Q19">
-        <v>93.03400941182706</v>
+        <v>17821.37094143059</v>
       </c>
       <c r="R19">
-        <v>93.03400941182706</v>
+        <v>160392.3384728754</v>
       </c>
       <c r="S19">
-        <v>0.0007035002985236373</v>
+        <v>0.1265434167140792</v>
       </c>
       <c r="T19">
-        <v>0.0007035002985236373</v>
+        <v>0.1265434167140793</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.3449318880152</v>
+        <v>144.332067</v>
       </c>
       <c r="H20">
-        <v>83.3449318880152</v>
+        <v>432.996201</v>
       </c>
       <c r="I20">
-        <v>0.1268962983260165</v>
+        <v>0.2169304776508345</v>
       </c>
       <c r="J20">
-        <v>0.1268962983260165</v>
+        <v>0.2169304776508346</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>123.176992560799</v>
+        <v>86.43835066666666</v>
       </c>
       <c r="N20">
-        <v>123.176992560799</v>
+        <v>259.315052</v>
       </c>
       <c r="O20">
-        <v>0.6117618451307635</v>
+        <v>0.4083637438528564</v>
       </c>
       <c r="P20">
-        <v>0.6117618451307635</v>
+        <v>0.4083637438528565</v>
       </c>
       <c r="Q20">
-        <v>10266.17805515035</v>
+        <v>12475.82581979083</v>
       </c>
       <c r="R20">
-        <v>10266.17805515035</v>
+        <v>112282.4323781174</v>
       </c>
       <c r="S20">
-        <v>0.07763031360418768</v>
+        <v>0.08858654200928319</v>
       </c>
       <c r="T20">
-        <v>0.07763031360418768</v>
+        <v>0.0885865420092832</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>144.332067</v>
+      </c>
+      <c r="H21">
+        <v>432.996201</v>
+      </c>
+      <c r="I21">
+        <v>0.2169304776508345</v>
+      </c>
+      <c r="J21">
+        <v>0.2169304776508346</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1021626666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.306488</v>
+      </c>
+      <c r="O21">
+        <v>0.0004826506836401238</v>
+      </c>
+      <c r="P21">
+        <v>0.0004826506836401239</v>
+      </c>
+      <c r="Q21">
+        <v>14.745348850232</v>
+      </c>
+      <c r="R21">
+        <v>132.708139652088</v>
+      </c>
+      <c r="S21">
+        <v>0.0001047016433405539</v>
+      </c>
+      <c r="T21">
+        <v>0.0001047016433405539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>90.42962366666666</v>
+      </c>
+      <c r="H22">
+        <v>271.288871</v>
+      </c>
+      <c r="I22">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="J22">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5288616666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.586585</v>
+      </c>
+      <c r="O22">
+        <v>0.002498519794912577</v>
+      </c>
+      <c r="P22">
+        <v>0.002498519794912577</v>
+      </c>
+      <c r="Q22">
+        <v>47.82476148839277</v>
+      </c>
+      <c r="R22">
+        <v>430.422853395535</v>
+      </c>
+      <c r="S22">
+        <v>0.0003395871587077421</v>
+      </c>
+      <c r="T22">
+        <v>0.0003395871587077423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>90.42962366666666</v>
+      </c>
+      <c r="H23">
+        <v>271.288871</v>
+      </c>
+      <c r="I23">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="J23">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.125832666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.377498</v>
+      </c>
+      <c r="O23">
+        <v>0.005318810911660982</v>
+      </c>
+      <c r="P23">
+        <v>0.005318810911660982</v>
+      </c>
+      <c r="Q23">
+        <v>101.8086243583064</v>
+      </c>
+      <c r="R23">
+        <v>916.2776192247579</v>
+      </c>
+      <c r="S23">
+        <v>0.0007229079749027514</v>
+      </c>
+      <c r="T23">
+        <v>0.0007229079749027515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>90.42962366666666</v>
+      </c>
+      <c r="H24">
+        <v>271.288871</v>
+      </c>
+      <c r="I24">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="J24">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>123.474785</v>
+      </c>
+      <c r="N24">
+        <v>370.424355</v>
+      </c>
+      <c r="O24">
+        <v>0.5833362747569298</v>
+      </c>
+      <c r="P24">
+        <v>0.58333627475693</v>
+      </c>
+      <c r="Q24">
+        <v>11165.77833987258</v>
+      </c>
+      <c r="R24">
+        <v>100492.0050588532</v>
+      </c>
+      <c r="S24">
+        <v>0.07928434608331605</v>
+      </c>
+      <c r="T24">
+        <v>0.0792843460833161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>83.3449318880152</v>
-      </c>
-      <c r="H21">
-        <v>83.3449318880152</v>
-      </c>
-      <c r="I21">
-        <v>0.1268962983260165</v>
-      </c>
-      <c r="J21">
-        <v>0.1268962983260165</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>76.597646894137</v>
-      </c>
-      <c r="N21">
-        <v>76.597646894137</v>
-      </c>
-      <c r="O21">
-        <v>0.3804242726051501</v>
-      </c>
-      <c r="P21">
-        <v>0.3804242726051501</v>
-      </c>
-      <c r="Q21">
-        <v>6384.025663174087</v>
-      </c>
-      <c r="R21">
-        <v>6384.025663174087</v>
-      </c>
-      <c r="S21">
-        <v>0.04827443198696096</v>
-      </c>
-      <c r="T21">
-        <v>0.04827443198696096</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>90.42962366666666</v>
+      </c>
+      <c r="H25">
+        <v>271.288871</v>
+      </c>
+      <c r="I25">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="J25">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.43835066666666</v>
+      </c>
+      <c r="N25">
+        <v>259.315052</v>
+      </c>
+      <c r="O25">
+        <v>0.4083637438528564</v>
+      </c>
+      <c r="P25">
+        <v>0.4083637438528565</v>
+      </c>
+      <c r="Q25">
+        <v>7816.587521154031</v>
+      </c>
+      <c r="R25">
+        <v>70349.28769038628</v>
+      </c>
+      <c r="S25">
+        <v>0.05550289566511116</v>
+      </c>
+      <c r="T25">
+        <v>0.05550289566511118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>90.42962366666666</v>
+      </c>
+      <c r="H26">
+        <v>271.288871</v>
+      </c>
+      <c r="I26">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="J26">
+        <v>0.1359153365121225</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1021626666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.306488</v>
+      </c>
+      <c r="O26">
+        <v>0.0004826506836401238</v>
+      </c>
+      <c r="P26">
+        <v>0.0004826506836401239</v>
+      </c>
+      <c r="Q26">
+        <v>9.238531499449778</v>
+      </c>
+      <c r="R26">
+        <v>83.14678349504798</v>
+      </c>
+      <c r="S26">
+        <v>6.559963008475339E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.559963008475342E-05</v>
       </c>
     </row>
   </sheetData>
